--- a/Bees/xlsx/level.xlsx
+++ b/Bees/xlsx/level.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cici\Desktop\蜜蜂数值调整\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E02970-500C-4A1C-88F4-0CB4DDD2E549}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A77DCA-1D87-4BC7-AFA6-DEDB35EE3B71}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="108" windowWidth="12768" windowHeight="5712" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,13 +424,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="F148" sqref="F148"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.69921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1340,8 +1341,7 @@
         <v>7.5E+18</v>
       </c>
       <c r="C76">
-        <f t="shared" si="1"/>
-        <v>1.5E+19</v>
+        <v>2.25E+19</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1352,8 +1352,7 @@
         <v>1.52E+19</v>
       </c>
       <c r="C77">
-        <f t="shared" si="1"/>
-        <v>3.04E+19</v>
+        <v>4.56E+19</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1364,8 +1363,7 @@
         <v>3.08E+19</v>
       </c>
       <c r="C78">
-        <f t="shared" si="1"/>
-        <v>6.16E+19</v>
+        <v>9.24E+19</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1376,8 +1374,7 @@
         <v>4.5E+19</v>
       </c>
       <c r="C79">
-        <f t="shared" si="1"/>
-        <v>9E+19</v>
+        <v>1.35E+20</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,8 +1385,7 @@
         <v>6.32E+19</v>
       </c>
       <c r="C80">
-        <f t="shared" si="1"/>
-        <v>1.264E+20</v>
+        <v>1.896E+20</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1400,8 +1396,7 @@
         <v>8E+19</v>
       </c>
       <c r="C81">
-        <f t="shared" si="1"/>
-        <v>1.6E+20</v>
+        <v>2.4E+20</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,8 +1407,7 @@
         <v>1.62E+20</v>
       </c>
       <c r="C82">
-        <f t="shared" si="1"/>
-        <v>3.24E+20</v>
+        <v>4.86E+20</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1424,8 +1418,7 @@
         <v>3.28E+20</v>
       </c>
       <c r="C83">
-        <f t="shared" si="1"/>
-        <v>6.56E+20</v>
+        <v>9.84E+20</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1436,8 +1429,7 @@
         <v>4.98E+20</v>
       </c>
       <c r="C84">
-        <f t="shared" si="1"/>
-        <v>9.96E+20</v>
+        <v>1.494E+21</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1448,8 +1440,7 @@
         <v>6.72E+20</v>
       </c>
       <c r="C85">
-        <f t="shared" si="1"/>
-        <v>1.344E+21</v>
+        <v>2.016E+21</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,8 +1451,7 @@
         <v>8.5E+20</v>
       </c>
       <c r="C86">
-        <f t="shared" si="1"/>
-        <v>1.7E+21</v>
+        <v>2.55E+21</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1472,8 +1462,7 @@
         <v>1.72E+21</v>
       </c>
       <c r="C87">
-        <f t="shared" si="1"/>
-        <v>3.44E+21</v>
+        <v>5.16E+21</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1484,8 +1473,7 @@
         <v>3.48E+21</v>
       </c>
       <c r="C88">
-        <f t="shared" si="1"/>
-        <v>6.96E+21</v>
+        <v>1.044E+22</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1496,8 +1484,7 @@
         <v>5.28E+21</v>
       </c>
       <c r="C89">
-        <f t="shared" si="1"/>
-        <v>1.056E+22</v>
+        <v>1.584E+22</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1508,8 +1495,7 @@
         <v>7.12E+21</v>
       </c>
       <c r="C90">
-        <f t="shared" si="1"/>
-        <v>1.424E+22</v>
+        <v>2.136E+22</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,8 +1506,7 @@
         <v>9E+21</v>
       </c>
       <c r="C91">
-        <f t="shared" si="1"/>
-        <v>1.8E+22</v>
+        <v>2.7000000000000002E+22</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1532,8 +1517,7 @@
         <v>1.82E+22</v>
       </c>
       <c r="C92">
-        <f t="shared" si="1"/>
-        <v>3.64E+22</v>
+        <v>5.4599999999999998E+22</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,8 +1528,7 @@
         <v>3.68E+22</v>
       </c>
       <c r="C93">
-        <f t="shared" si="1"/>
-        <v>7.36E+22</v>
+        <v>1.104E+23</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1556,8 +1539,7 @@
         <v>5.5800000000000002E+22</v>
       </c>
       <c r="C94">
-        <f t="shared" si="1"/>
-        <v>1.116E+23</v>
+        <v>1.6740000000000002E+23</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1568,8 +1550,7 @@
         <v>7.52E+22</v>
       </c>
       <c r="C95">
-        <f t="shared" si="1"/>
-        <v>1.504E+23</v>
+        <v>2.2559999999999998E+23</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1580,8 +1561,7 @@
         <v>9.4999999999999994E+22</v>
       </c>
       <c r="C96">
-        <f t="shared" si="1"/>
-        <v>1.8999999999999999E+23</v>
+        <v>2.85E+23</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,8 +1572,7 @@
         <v>1.92E+23</v>
       </c>
       <c r="C97">
-        <f t="shared" si="1"/>
-        <v>3.84E+23</v>
+        <v>5.76E+23</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -1604,8 +1583,7 @@
         <v>3.8800000000000003E+23</v>
       </c>
       <c r="C98">
-        <f t="shared" si="1"/>
-        <v>7.7600000000000005E+23</v>
+        <v>1.164E+24</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -1616,8 +1594,7 @@
         <v>5.8800000000000001E+23</v>
       </c>
       <c r="C99">
-        <f t="shared" si="1"/>
-        <v>1.176E+24</v>
+        <v>1.7639999999999999E+24</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1628,8 +1605,7 @@
         <v>7.9200000000000002E+23</v>
       </c>
       <c r="C100">
-        <f t="shared" si="1"/>
-        <v>1.584E+24</v>
+        <v>2.3760000000000001E+24</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1640,8 +1616,7 @@
         <v>9.9999999999999998E+23</v>
       </c>
       <c r="C101">
-        <f t="shared" si="1"/>
-        <v>2E+24</v>
+        <v>2.9999999999999999E+24</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,8 +1627,7 @@
         <v>2.0199999999999999E+24</v>
       </c>
       <c r="C102">
-        <f t="shared" si="1"/>
-        <v>4.0399999999999998E+24</v>
+        <v>6.0600000000000002E+24</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1664,8 +1638,7 @@
         <v>4.0800000000000002E+24</v>
       </c>
       <c r="C103">
-        <f t="shared" si="1"/>
-        <v>8.1600000000000003E+24</v>
+        <v>1.2240000000000001E+25</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,8 +1649,7 @@
         <v>6.1799999999999998E+24</v>
       </c>
       <c r="C104">
-        <f t="shared" si="1"/>
-        <v>1.236E+25</v>
+        <v>1.854E+25</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1688,8 +1660,7 @@
         <v>8.3199999999999997E+24</v>
       </c>
       <c r="C105">
-        <f t="shared" si="1"/>
-        <v>1.6639999999999999E+25</v>
+        <v>2.496E+25</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1700,8 +1671,7 @@
         <v>1.05E+25</v>
       </c>
       <c r="C106">
-        <f t="shared" si="1"/>
-        <v>2.0999999999999999E+25</v>
+        <v>3.1499999999999999E+25</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1712,8 +1682,7 @@
         <v>2.1199999999999999E+25</v>
       </c>
       <c r="C107">
-        <f t="shared" si="1"/>
-        <v>4.2399999999999999E+25</v>
+        <v>6.3599999999999998E+25</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,8 +1693,7 @@
         <v>4.2799999999999999E+25</v>
       </c>
       <c r="C108">
-        <f t="shared" si="1"/>
-        <v>8.5599999999999999E+25</v>
+        <v>1.284E+26</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1736,8 +1704,7 @@
         <v>6.48E+25</v>
       </c>
       <c r="C109">
-        <f t="shared" si="1"/>
-        <v>1.296E+26</v>
+        <v>1.944E+26</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1748,8 +1715,7 @@
         <v>8.7200000000000002E+25</v>
       </c>
       <c r="C110">
-        <f t="shared" si="1"/>
-        <v>1.744E+26</v>
+        <v>2.616E+26</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1760,8 +1726,7 @@
         <v>1.1E+26</v>
       </c>
       <c r="C111">
-        <f t="shared" si="1"/>
-        <v>2.2000000000000001E+26</v>
+        <v>3.2999999999999999E+26</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1772,8 +1737,7 @@
         <v>2.2199999999999999E+26</v>
       </c>
       <c r="C112">
-        <f t="shared" si="1"/>
-        <v>4.4399999999999999E+26</v>
+        <v>6.6600000000000005E+26</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,8 +1748,7 @@
         <v>4.4800000000000003E+26</v>
       </c>
       <c r="C113">
-        <f t="shared" si="1"/>
-        <v>8.9600000000000005E+26</v>
+        <v>1.3439999999999999E+27</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1796,8 +1759,7 @@
         <v>6.7800000000000003E+26</v>
       </c>
       <c r="C114">
-        <f t="shared" si="1"/>
-        <v>1.3560000000000001E+27</v>
+        <v>2.034E+27</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,8 +1770,7 @@
         <v>9.1199999999999994E+26</v>
       </c>
       <c r="C115">
-        <f t="shared" si="1"/>
-        <v>1.8239999999999999E+27</v>
+        <v>2.7359999999999998E+27</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1820,8 +1781,7 @@
         <v>1.15E+27</v>
       </c>
       <c r="C116">
-        <f t="shared" si="1"/>
-        <v>2.3000000000000001E+27</v>
+        <v>3.4500000000000001E+27</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1832,8 +1792,7 @@
         <v>2.32E+27</v>
       </c>
       <c r="C117">
-        <f t="shared" si="1"/>
-        <v>4.64E+27</v>
+        <v>9.2799999999999999E+27</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1844,8 +1803,7 @@
         <v>4.6799999999999998E+27</v>
       </c>
       <c r="C118">
-        <f t="shared" si="1"/>
-        <v>9.3599999999999997E+27</v>
+        <v>1.8719999999999999E+28</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1856,8 +1814,7 @@
         <v>7.0800000000000001E+27</v>
       </c>
       <c r="C119">
-        <f t="shared" si="1"/>
-        <v>1.416E+28</v>
+        <v>2.832E+28</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1868,8 +1825,7 @@
         <v>9.5200000000000002E+27</v>
       </c>
       <c r="C120">
-        <f t="shared" si="1"/>
-        <v>1.904E+28</v>
+        <v>3.8080000000000001E+28</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1880,8 +1836,7 @@
         <v>1.1999999999999999E+28</v>
       </c>
       <c r="C121">
-        <f t="shared" si="1"/>
-        <v>2.3999999999999998E+28</v>
+        <v>4.7999999999999996E+28</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1892,8 +1847,7 @@
         <v>2.4200000000000001E+28</v>
       </c>
       <c r="C122">
-        <f t="shared" si="1"/>
-        <v>4.8400000000000001E+28</v>
+        <v>9.6800000000000003E+28</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1904,8 +1858,7 @@
         <v>4.8799999999999998E+28</v>
       </c>
       <c r="C123">
-        <f t="shared" si="1"/>
-        <v>9.7599999999999996E+28</v>
+        <v>1.9519999999999999E+29</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,8 +1869,7 @@
         <v>7.38E+28</v>
       </c>
       <c r="C124">
-        <f t="shared" si="1"/>
-        <v>1.476E+29</v>
+        <v>2.952E+29</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1928,8 +1880,7 @@
         <v>9.9199999999999999E+28</v>
       </c>
       <c r="C125">
-        <f t="shared" si="1"/>
-        <v>1.984E+29</v>
+        <v>3.9679999999999999E+29</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1940,8 +1891,7 @@
         <v>1.25E+29</v>
       </c>
       <c r="C126">
-        <f t="shared" si="1"/>
-        <v>2.5E+29</v>
+        <v>5.0000000000000001E+29</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1952,8 +1902,7 @@
         <v>2.52E+29</v>
       </c>
       <c r="C127">
-        <f t="shared" si="1"/>
-        <v>5.0400000000000001E+29</v>
+        <v>1.008E+30</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1964,8 +1913,7 @@
         <v>5.0800000000000001E+29</v>
       </c>
       <c r="C128">
-        <f t="shared" si="1"/>
-        <v>1.016E+30</v>
+        <v>2.032E+30</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1976,8 +1924,7 @@
         <v>7.6799999999999994E+29</v>
       </c>
       <c r="C129">
-        <f t="shared" si="1"/>
-        <v>1.5359999999999999E+30</v>
+        <v>3.0719999999999998E+30</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -1988,8 +1935,7 @@
         <v>1.032E+30</v>
       </c>
       <c r="C130">
-        <f t="shared" si="1"/>
-        <v>2.064E+30</v>
+        <v>4.128E+30</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -2000,8 +1946,7 @@
         <v>1.2999999999999999E+30</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C146" si="2">2*B131</f>
-        <v>2.5999999999999999E+30</v>
+        <v>5.1999999999999998E+30</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,8 +1957,7 @@
         <v>2.6199999999999999E+30</v>
       </c>
       <c r="C132">
-        <f t="shared" si="2"/>
-        <v>5.2399999999999998E+30</v>
+        <v>1.048E+31</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2024,8 +1968,7 @@
         <v>5.2799999999999997E+30</v>
       </c>
       <c r="C133">
-        <f t="shared" si="2"/>
-        <v>1.0559999999999999E+31</v>
+        <v>2.1119999999999999E+31</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2036,8 +1979,7 @@
         <v>7.9799999999999996E+30</v>
       </c>
       <c r="C134">
-        <f t="shared" si="2"/>
-        <v>1.5959999999999999E+31</v>
+        <v>3.1919999999999998E+31</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,8 +1990,7 @@
         <v>1.0719999999999999E+31</v>
       </c>
       <c r="C135">
-        <f t="shared" si="2"/>
-        <v>2.1439999999999999E+31</v>
+        <v>4.2879999999999998E+31</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,8 +2001,7 @@
         <v>1.3499999999999999E+31</v>
       </c>
       <c r="C136">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999999E+31</v>
+        <v>5.3999999999999997E+31</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2072,8 +2012,7 @@
         <v>2.7200000000000002E+31</v>
       </c>
       <c r="C137">
-        <f t="shared" si="2"/>
-        <v>5.4400000000000004E+31</v>
+        <v>1.0880000000000001E+32</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2084,8 +2023,7 @@
         <v>5.4800000000000001E+31</v>
       </c>
       <c r="C138">
-        <f t="shared" si="2"/>
-        <v>1.096E+32</v>
+        <v>2.1920000000000001E+32</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2096,8 +2034,7 @@
         <v>8.2799999999999999E+31</v>
       </c>
       <c r="C139">
-        <f t="shared" si="2"/>
-        <v>1.656E+32</v>
+        <v>3.3119999999999999E+32</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2108,8 +2045,7 @@
         <v>1.1119999999999999E+32</v>
       </c>
       <c r="C140">
-        <f t="shared" si="2"/>
-        <v>2.2239999999999999E+32</v>
+        <v>4.4479999999999997E+32</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2120,8 +2056,7 @@
         <v>1.4E+32</v>
       </c>
       <c r="C141">
-        <f t="shared" si="2"/>
-        <v>2.8000000000000001E+32</v>
+        <v>5.6000000000000002E+32</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2132,8 +2067,7 @@
         <v>2.8200000000000001E+32</v>
       </c>
       <c r="C142">
-        <f t="shared" si="2"/>
-        <v>5.6400000000000003E+32</v>
+        <v>1.1280000000000001E+33</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,8 +2078,7 @@
         <v>5.6799999999999997E+32</v>
       </c>
       <c r="C143">
-        <f t="shared" si="2"/>
-        <v>1.1359999999999999E+33</v>
+        <v>2.2719999999999999E+33</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2156,8 +2089,7 @@
         <v>8.5800000000000001E+32</v>
       </c>
       <c r="C144">
-        <f t="shared" si="2"/>
-        <v>1.716E+33</v>
+        <v>3.432E+33</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2168,8 +2100,7 @@
         <v>1.152E+33</v>
       </c>
       <c r="C145">
-        <f t="shared" si="2"/>
-        <v>2.304E+33</v>
+        <v>4.6079999999999999E+33</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2180,8 +2111,7 @@
         <v>1.4500000000000001E+33</v>
       </c>
       <c r="C146">
-        <f t="shared" si="2"/>
-        <v>2.9000000000000002E+33</v>
+        <v>5.8000000000000005E+33</v>
       </c>
     </row>
   </sheetData>
